--- a/Data/EC/NIT-9006797315.xlsx
+++ b/Data/EC/NIT-9006797315.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E9B8400-5546-4D1C-AE6A-C2A5DE4845F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E20D5DD-132A-4303-8AD2-BB5F3D671A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A11CC9AD-2AB7-496F-A7B1-03DBE13FA6A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BB98A6EB-A29E-4703-8F5F-F8519518555C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,190 +65,190 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1051444752</t>
+  </si>
+  <si>
+    <t>LEIDY CAROLINA OROZCO BARRIOS</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>33332891</t>
   </si>
   <si>
     <t>ETILVIA HORTENCIA BUELVAS CANTILLO</t>
   </si>
   <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
     <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1051444752</t>
-  </si>
-  <si>
-    <t>LEIDY CAROLINA OROZCO BARRIOS</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -347,7 +347,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -360,9 +362,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -562,23 +562,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,10 +606,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +662,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A2643D-DDE9-D26B-D37C-010896DA0808}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C4E6E7-806A-6840-91DB-4EC487CC05CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C935DF-8FC2-43EF-AAE7-99920B767BB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758B21E1-FEAE-49FB-AAB4-7B6B30B539E1}">
   <dimension ref="B2:J130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1191,10 +1191,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G16" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1214,10 +1214,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G17" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1228,13 +1228,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>32000</v>
@@ -1257,13 +1257,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G19" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1274,13 +1274,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>32000</v>
@@ -1306,10 +1306,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G21" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1320,10 +1320,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1349,13 +1349,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G23" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1366,13 +1366,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>32000</v>
@@ -1395,13 +1395,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G25" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1412,13 +1412,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>32000</v>
@@ -1441,13 +1441,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G27" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1458,13 +1458,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>32000</v>
@@ -1487,13 +1487,13 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G29" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1504,13 +1504,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
         <v>32000</v>
@@ -1533,13 +1533,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G31" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1550,13 +1550,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
         <v>32000</v>
@@ -1579,13 +1579,13 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G33" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1596,13 +1596,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
         <v>32000</v>
@@ -1625,13 +1625,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G35" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1642,13 +1642,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
         <v>32000</v>
@@ -1671,13 +1671,13 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G37" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1688,13 +1688,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
         <v>32000</v>
@@ -1717,13 +1717,13 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G39" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1734,13 +1734,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
         <v>32000</v>
@@ -1763,13 +1763,13 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G41" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1780,13 +1780,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
         <v>32000</v>
@@ -1809,13 +1809,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F43" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G43" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1826,13 +1826,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
         <v>32000</v>
@@ -1855,13 +1855,13 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G45" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1872,13 +1872,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
         <v>32000</v>
@@ -1901,13 +1901,13 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G47" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1918,13 +1918,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
         <v>32000</v>
@@ -1947,13 +1947,13 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F49" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G49" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1964,13 +1964,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
         <v>32000</v>
@@ -1993,13 +1993,13 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F51" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G51" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2010,13 +2010,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
         <v>32000</v>
@@ -2039,13 +2039,13 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F53" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G53" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2056,13 +2056,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F54" s="18">
         <v>32000</v>
@@ -2085,13 +2085,13 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F55" s="18">
-        <v>32000</v>
+        <v>27582</v>
       </c>
       <c r="G55" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2102,13 +2102,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
         <v>32000</v>
@@ -2131,13 +2131,13 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F57" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2148,13 +2148,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F58" s="18">
         <v>32000</v>
@@ -2177,13 +2177,13 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F59" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2194,13 +2194,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F60" s="18">
         <v>32000</v>
@@ -2223,13 +2223,13 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F61" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2240,13 +2240,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F62" s="18">
         <v>32000</v>
@@ -2269,13 +2269,13 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F63" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2286,13 +2286,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F64" s="18">
         <v>32000</v>
@@ -2315,13 +2315,13 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F65" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2332,13 +2332,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F66" s="18">
         <v>32000</v>
@@ -2361,13 +2361,13 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F67" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2378,13 +2378,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F68" s="18">
         <v>32000</v>
@@ -2407,13 +2407,13 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F69" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2424,13 +2424,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F70" s="18">
         <v>32000</v>
@@ -2453,13 +2453,13 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F71" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2470,19 +2470,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G72" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2493,19 +2493,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2516,19 +2516,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G74" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2539,19 +2539,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2562,19 +2562,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G76" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2585,19 +2585,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2608,19 +2608,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G78" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2631,19 +2631,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2654,19 +2654,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G80" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2677,19 +2677,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2700,19 +2700,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G82" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2723,19 +2723,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2746,19 +2746,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G84" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2769,19 +2769,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2792,19 +2792,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G86" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2815,19 +2815,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2838,19 +2838,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G88" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2861,19 +2861,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2884,19 +2884,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G90" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2907,19 +2907,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
       </c>
       <c r="G91" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2930,19 +2930,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G92" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2953,19 +2953,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
       </c>
       <c r="G93" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2976,19 +2976,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G94" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2999,19 +2999,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3022,19 +3022,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G96" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3045,19 +3045,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3068,19 +3068,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G98" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3091,19 +3091,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3114,19 +3114,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G100" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3137,19 +3137,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3160,19 +3160,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G102" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3183,19 +3183,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3206,19 +3206,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F104" s="18">
-        <v>27582</v>
+        <v>32000</v>
       </c>
       <c r="G104" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3229,19 +3229,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F105" s="18">
-        <v>27582</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3252,19 +3252,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F106" s="18">
-        <v>27582</v>
+        <v>32000</v>
       </c>
       <c r="G106" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3275,19 +3275,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F107" s="18">
-        <v>27582</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3298,19 +3298,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F108" s="18">
-        <v>27582</v>
+        <v>32000</v>
       </c>
       <c r="G108" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3321,19 +3321,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F109" s="18">
-        <v>27582</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3344,19 +3344,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F110" s="18">
-        <v>27582</v>
+        <v>32000</v>
       </c>
       <c r="G110" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3367,19 +3367,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F111" s="18">
-        <v>27582</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3390,19 +3390,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F112" s="18">
-        <v>27582</v>
+        <v>32000</v>
       </c>
       <c r="G112" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3413,19 +3413,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F113" s="18">
-        <v>27582</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3436,19 +3436,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F114" s="18">
-        <v>27582</v>
+        <v>32000</v>
       </c>
       <c r="G114" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3459,19 +3459,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F115" s="18">
-        <v>27582</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3482,19 +3482,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F116" s="18">
-        <v>27582</v>
+        <v>32000</v>
       </c>
       <c r="G116" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3505,19 +3505,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F117" s="18">
-        <v>27582</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3528,19 +3528,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F118" s="18">
-        <v>27582</v>
+        <v>32000</v>
       </c>
       <c r="G118" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3551,19 +3551,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F119" s="18">
-        <v>27582</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>689545</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3574,19 +3574,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F120" s="18">
-        <v>27582</v>
+        <v>32000</v>
       </c>
       <c r="G120" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3597,19 +3597,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D121" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="F121" s="18">
-        <v>27582</v>
+        <v>32000</v>
       </c>
       <c r="G121" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3620,19 +3620,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D122" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E122" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="F122" s="18">
-        <v>27582</v>
+        <v>32000</v>
       </c>
       <c r="G122" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3643,19 +3643,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E123" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F123" s="18">
-        <v>27582</v>
+        <v>32000</v>
       </c>
       <c r="G123" s="18">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3666,19 +3666,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E124" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F124" s="24">
-        <v>27582</v>
+        <v>32000</v>
       </c>
       <c r="G124" s="24">
-        <v>689545</v>
+        <v>800000</v>
       </c>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
